--- a/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_2/TDS_measurement.xlsx
+++ b/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_2/TDS_measurement.xlsx
@@ -498,22 +498,22 @@
         <v>120</v>
       </c>
       <c r="B3" t="n">
-        <v>5.42766094</v>
+        <v>3.27254152</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5308032</v>
+        <v>2.68461728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8967608030000001</v>
+        <v>0.58813031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.69254834</v>
+        <v>0.417601898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57800946</v>
+        <v>0.342602142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.114393646</v>
+        <v>0.0750374603</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>600</v>
       </c>
       <c r="B4" t="n">
-        <v>8.715228079999999</v>
+        <v>3.61180258</v>
       </c>
       <c r="C4" t="n">
-        <v>7.34853458</v>
+        <v>2.97560501</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36674929</v>
+        <v>0.636955627</v>
       </c>
       <c r="E4" t="n">
-        <v>1.11193717</v>
+        <v>0.460878754</v>
       </c>
       <c r="F4" t="n">
-        <v>0.937458557</v>
+        <v>0.379565338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.174369293</v>
+        <v>0.0812569199</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>1800</v>
       </c>
       <c r="B5" t="n">
-        <v>9.340603829999999</v>
+        <v>4.36354733</v>
       </c>
       <c r="C5" t="n">
-        <v>7.88431644</v>
+        <v>3.61870313</v>
       </c>
       <c r="D5" t="n">
-        <v>1.45594263</v>
+        <v>0.74436084</v>
       </c>
       <c r="E5" t="n">
-        <v>1.19177425</v>
+        <v>0.556720093</v>
       </c>
       <c r="F5" t="n">
-        <v>1.00582898</v>
+        <v>0.46166925</v>
       </c>
       <c r="G5" t="n">
-        <v>0.185741013</v>
+        <v>0.0949760895</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>7200</v>
       </c>
       <c r="B6" t="n">
-        <v>9.3462944</v>
+        <v>6.66303682</v>
       </c>
       <c r="C6" t="n">
-        <v>7.8911767</v>
+        <v>5.5889616</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45703602</v>
+        <v>1.07321095</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1926527</v>
+        <v>0.850027832</v>
       </c>
       <c r="F6" t="n">
-        <v>1.00641632</v>
+        <v>0.713096558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.185915543</v>
+        <v>0.1369505</v>
       </c>
     </row>
   </sheetData>
